--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-model-k-10-old-configuration.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -113,123 +152,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0">
-        <v>4.8055585091497148</v>
+        <v>4.7087571496212126</v>
       </c>
       <c r="C2" s="0">
-        <v>0.50943719850992675</v>
+        <v>0.49917528757569113</v>
       </c>
       <c r="D2" s="0">
-        <v>3.8249428640713421</v>
+        <v>3.7736643984630578</v>
       </c>
       <c r="E2" s="0">
-        <v>0.4729570380709881</v>
+        <v>0.45409481108355809</v>
       </c>
       <c r="F2" s="0">
-        <v>0.68771872016907332</v>
+        <v>0.67386557345182585</v>
       </c>
       <c r="G2" s="0">
-        <v>0.61527044893825267</v>
+        <v>0.60702192714933068</v>
       </c>
       <c r="H2" s="0">
-        <v>0.5270429619290119</v>
+        <v>0.54590518891644191</v>
       </c>
       <c r="I2" s="0">
-        <v>0.77819300042362927</v>
+        <v>0.7928388375009936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0">
-        <v>4.942604194168001</v>
+        <v>4.9708505991732981</v>
       </c>
       <c r="C3" s="0">
-        <v>0.52396540989485951</v>
+        <v>0.52695981094241251</v>
       </c>
       <c r="D3" s="0">
-        <v>3.7843171400741302</v>
+        <v>3.8836863321307282</v>
       </c>
       <c r="E3" s="0">
-        <v>0.5003174158275755</v>
+        <v>0.50605226719204566</v>
       </c>
       <c r="F3" s="0">
-        <v>0.7073311924604877</v>
+        <v>0.71137350751349016</v>
       </c>
       <c r="G3" s="0">
-        <v>0.6087354997035862</v>
+        <v>0.62471977177770988</v>
       </c>
       <c r="H3" s="0">
-        <v>0.4996825841724245</v>
+        <v>0.49394773280795434</v>
       </c>
       <c r="I3" s="0">
-        <v>0.75219491954965123</v>
+        <v>0.74325595572698289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0">
-        <v>4.5512674872258714</v>
+        <v>4.2753486711292013</v>
       </c>
       <c r="C4" s="0">
-        <v>0.48247981040020821</v>
+        <v>0.45322966009596516</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5381338623341949</v>
+        <v>3.2670238705032988</v>
       </c>
       <c r="E4" s="0">
-        <v>0.42422736088769225</v>
+        <v>0.37434930553829177</v>
       </c>
       <c r="F4" s="0">
-        <v>0.6513273837999537</v>
+        <v>0.6118409152208536</v>
       </c>
       <c r="G4" s="0">
-        <v>0.56913509227294701</v>
+        <v>0.52552503787127436</v>
       </c>
       <c r="H4" s="0">
-        <v>0.57577263911230769</v>
+        <v>0.62565069446170818</v>
       </c>
       <c r="I4" s="0">
-        <v>0.79076433944380664</v>
+        <v>0.80887238697455244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0">
         <v>4.1400691710446793</v>

--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-salinity-test-2018-model-k-10-old-configuration.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -152,123 +191,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0">
-        <v>4.7087571496212126</v>
+        <v>4.8122917338773767</v>
       </c>
       <c r="C2" s="0">
-        <v>0.49917528757569113</v>
+        <v>0.5101509875805762</v>
       </c>
       <c r="D2" s="0">
-        <v>3.7736643984630578</v>
+        <v>3.9053775524491159</v>
       </c>
       <c r="E2" s="0">
-        <v>0.45409481108355809</v>
+        <v>0.47428331762389353</v>
       </c>
       <c r="F2" s="0">
-        <v>0.67386557345182585</v>
+        <v>0.68868230529315444</v>
       </c>
       <c r="G2" s="0">
-        <v>0.60702192714933068</v>
+        <v>0.62820896556114525</v>
       </c>
       <c r="H2" s="0">
-        <v>0.54590518891644191</v>
+        <v>0.52571668237610647</v>
       </c>
       <c r="I2" s="0">
-        <v>0.7928388375009936</v>
+        <v>0.79049331946619228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
-        <v>4.9708505991732981</v>
+        <v>4.884238670532028</v>
       </c>
       <c r="C3" s="0">
-        <v>0.52695981094241251</v>
+        <v>0.51777808145133675</v>
       </c>
       <c r="D3" s="0">
-        <v>3.8836863321307282</v>
+        <v>3.8457783387930857</v>
       </c>
       <c r="E3" s="0">
-        <v>0.50605226719204566</v>
+        <v>0.48857102756581311</v>
       </c>
       <c r="F3" s="0">
-        <v>0.71137350751349016</v>
+        <v>0.6989785601617643</v>
       </c>
       <c r="G3" s="0">
-        <v>0.62471977177770988</v>
+        <v>0.61862198969100612</v>
       </c>
       <c r="H3" s="0">
-        <v>0.49394773280795434</v>
+        <v>0.51142897243418695</v>
       </c>
       <c r="I3" s="0">
-        <v>0.74325595572698289</v>
+        <v>0.74651559658417987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0">
-        <v>4.2753486711292013</v>
+        <v>4.5424889404325857</v>
       </c>
       <c r="C4" s="0">
-        <v>0.45322966009596516</v>
+        <v>0.4815491967625124</v>
       </c>
       <c r="D4" s="0">
-        <v>3.2670238705032988</v>
+        <v>3.6394059764594817</v>
       </c>
       <c r="E4" s="0">
-        <v>0.37434930553829177</v>
+        <v>0.4225924281126765</v>
       </c>
       <c r="F4" s="0">
-        <v>0.6118409152208536</v>
+        <v>0.65007109466017365</v>
       </c>
       <c r="G4" s="0">
-        <v>0.52552503787127436</v>
+        <v>0.5854254634855689</v>
       </c>
       <c r="H4" s="0">
-        <v>0.62565069446170818</v>
+        <v>0.5774075718873235</v>
       </c>
       <c r="I4" s="0">
-        <v>0.80887238697455244</v>
+        <v>0.81103739503932837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0">
         <v>4.1400691710446793</v>
